--- a/medicine/Handicap/On_est_fait_pour_s'entendre/On_est_fait_pour_s'entendre.xlsx
+++ b/medicine/Handicap/On_est_fait_pour_s'entendre/On_est_fait_pour_s'entendre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>On_est_fait_pour_s%27entendre</t>
+          <t>On_est_fait_pour_s'entendre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On est fait pour s'entendre est un film français réalisé par Pascal Elbé, sorti en 2021.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>On_est_fait_pour_s%27entendre</t>
+          <t>On_est_fait_pour_s'entendre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous ses proches reprochent à Antoine (Pascal Elbé) de ne pas écouter, de ne pas se concentrer ou de ne pas faire des efforts. Le problème est qu'il perd beaucoup d'audition. Il est malentendant. Dans son immeuble, Claire (Sandrine Kiberlain) s’installe avec sa fille, Violette, chez sa sœur, Léna (Valérie Donzelli), pour quelques jours, espérant calme et tranquillité, sauf qu'Antoine écoute de la musique à fond et n'éteint pas son réveille-matin.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>On_est_fait_pour_s%27entendre</t>
+          <t>On_est_fait_pour_s'entendre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données d'Unifrance.
 Titre original : On est fait pour s'entendre
@@ -554,15 +570,15 @@
 Son : Samuel Cohen
 Montage : Jennifer Augé
 Production : Éric Jehelmann et Philippe Rousselet
-Coproduction : Alexis Cohen et Pascal Elbé[1]
-Sociétés de production : Jerico et Père et Films ; France 3 Cinéma (coproduction)[1] ; SOFICA Cinécap 3
+Coproduction : Alexis Cohen et Pascal Elbé
+Sociétés de production : Jerico et Père et Films ; France 3 Cinéma (coproduction) ; SOFICA Cinécap 3
 Société de distribution : Diaphana Distribution
 Pays de production :  France
 Langue originale : français
 Format : couleur — 2,35:1
 Genre : comédie romantique
 Durée : 92 minutes
-Dates de sortie[2] :
+Dates de sortie :
 France : 28 août 2021 (Festival du film francophone d'Angoulême) ; 17 novembre 2021 (sortie nationale)
 Suisse romande : 17 novembre 2021</t>
         </is>
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>On_est_fait_pour_s%27entendre</t>
+          <t>On_est_fait_pour_s'entendre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sandrine Kiberlain : Claire, paysagiste, veuve
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>On_est_fait_pour_s%27entendre</t>
+          <t>On_est_fait_pour_s'entendre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,8 +662,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le tournage a lieu à Paris, ainsi qu'à Cabourg et à Houlgate (Calvados), entre février et juin 2020[3],[4]. Il s'interrompt dans le 16e arrondissement de Paris en raison du premier confinement lié à la pandémie de Covid-19, pendant 8 semaines[3], « alors qu'il restait encore 4 semaines de travail aux équipes, le tournage a été suspendu le 13 mars dernier », raconte le producteur exécutif Jean-Jacques Albert[5].
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu à Paris, ainsi qu'à Cabourg et à Houlgate (Calvados), entre février et juin 2020,. Il s'interrompt dans le 16e arrondissement de Paris en raison du premier confinement lié à la pandémie de Covid-19, pendant 8 semaines, « alors qu'il restait encore 4 semaines de travail aux équipes, le tournage a été suspendu le 13 mars dernier », raconte le producteur exécutif Jean-Jacques Albert.
 </t>
         </is>
       </c>
@@ -656,7 +679,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>On_est_fait_pour_s%27entendre</t>
+          <t>On_est_fait_pour_s'entendre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,10 +699,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Festival et sorties
-Le film est présenté en avant-première, le 28 août 2021, au Festival du film francophone d'Angoulême[6],[7]. Il sort le 17 novembre 2021 en France et, également, en Suisse romande.
-Diffusion en télévision
-Le film est diffusé le 3 octobre 2023 sur France 2 et réunit 3,300 millions de téléspectateurs, soit une part de marché de 16,5 %[8].
+          <t>Festival et sorties</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est présenté en avant-première, le 28 août 2021, au Festival du film francophone d'Angoulême,. Il sort le 17 novembre 2021 en France et, également, en Suisse romande.
 </t>
         </is>
       </c>
@@ -690,7 +716,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>On_est_fait_pour_s%27entendre</t>
+          <t>On_est_fait_pour_s'entendre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -705,12 +731,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Diffusion en télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est diffusé le 3 octobre 2023 sur France 2 et réunit 3,300 millions de téléspectateurs, soit une part de marché de 16,5 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>On_est_fait_pour_s'entendre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/On_est_fait_pour_s%27entendre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Festival du film de Cabourg 2022 : Swann du meilleur film[9].</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival du film de Cabourg 2022 : Swann du meilleur film.</t>
         </is>
       </c>
     </row>
